--- a/com/dm/auto/testdata/RegressionTesting.xlsx
+++ b/com/dm/auto/testdata/RegressionTesting.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dongman/PycharmProjects/appiumAuto/com/dm/auto/testdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pycharm_projects\appiumAuto\com\dm\auto\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,6 @@
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -35,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="95">
   <si>
     <t>fa</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -445,14 +442,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>手机验证码登录</t>
     <rPh sb="0" eb="1">
       <t>shou ji</t>
@@ -529,14 +518,136 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>咚漫消息</t>
-    <rPh sb="0" eb="1">
-      <t>dong man xiao xi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>backInit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobilePassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wechat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weibo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hhshsha</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1003062</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘎嘎故事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1003044</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所在页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>viewer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入viewer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>viewer_check_msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入选集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入最新话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作者名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>listview</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狗城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">使徒子/Zcloud/当雨作金泽
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exec</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -544,7 +655,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -581,13 +692,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -603,6 +717,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -873,156 +990,156 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView zoomScale="101" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="101" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+    <row r="2" spans="1:11">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+    <row r="3" spans="1:11">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+    <row r="4" spans="1:11">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+    <row r="5" spans="1:11">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+    <row r="6" spans="1:11">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+    <row r="7" spans="1:11">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+    <row r="8" spans="1:11">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+    <row r="9" spans="1:11">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+    <row r="10" spans="1:11">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+    <row r="11" spans="1:11">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="31.5">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -1040,7 +1157,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="94.5">
       <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
@@ -1056,37 +1173,37 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -1104,21 +1221,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="B14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
-    <col min="6" max="7" width="15.33203125" customWidth="1"/>
-    <col min="10" max="10" width="22.83203125" customWidth="1"/>
+    <col min="2" max="2" width="18.125" customWidth="1"/>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
+    <col min="4" max="4" width="14.625" customWidth="1"/>
+    <col min="6" max="7" width="15.375" customWidth="1"/>
+    <col min="10" max="10" width="22.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
@@ -1141,7 +1258,7 @@
         <v>43</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>34</v>
@@ -1153,80 +1270,96 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>64</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="H2" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="3">
+        <v>13683581996</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="C3" s="3" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="H3" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="3">
+        <v>13683581996</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="C4" s="3" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="H4" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
@@ -1235,21 +1368,21 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
@@ -1258,23 +1391,23 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
@@ -1283,21 +1416,21 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
@@ -1306,27 +1439,23 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>13683581996</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>23</v>
-      </c>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
@@ -1335,25 +1464,21 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>13683581996</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>23</v>
-      </c>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
@@ -1362,19 +1487,19 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="3">
         <v>13683581996</v>
       </c>
@@ -1395,13 +1520,13 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="3">
         <v>13683581996</v>
       </c>
@@ -1424,13 +1549,13 @@
         <v>40</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="3" t="s">
         <v>25</v>
       </c>
@@ -1438,26 +1563,30 @@
         <v>26</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="H13" s="3" t="s">
         <v>33</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="3" t="s">
         <v>25</v>
       </c>
@@ -1471,8 +1600,12 @@
       <c r="E14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="H14" s="3" t="s">
         <v>44</v>
       </c>
@@ -1480,13 +1613,13 @@
         <v>41</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1499,7 +1632,7 @@
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1512,7 +1645,7 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1525,7 +1658,7 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1538,7 +1671,7 @@
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1551,7 +1684,7 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1564,7 +1697,7 @@
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1577,7 +1710,7 @@
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1590,7 +1723,7 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1603,7 +1736,7 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1616,7 +1749,7 @@
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1629,7 +1762,7 @@
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1642,7 +1775,7 @@
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1655,7 +1788,7 @@
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1668,7 +1801,7 @@
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1681,7 +1814,7 @@
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1694,7 +1827,7 @@
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1707,7 +1840,7 @@
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1720,7 +1853,7 @@
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1733,7 +1866,7 @@
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1746,7 +1879,7 @@
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1759,7 +1892,7 @@
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1772,7 +1905,7 @@
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1785,7 +1918,7 @@
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1798,7 +1931,7 @@
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1811,7 +1944,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1824,7 +1957,7 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -1837,7 +1970,7 @@
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1853,22 +1986,133 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="4" max="4" width="25.375" customWidth="1"/>
+    <col min="9" max="9" width="19.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="63">
+      <c r="A2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="63">
+      <c r="A3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1880,9 +2124,9 @@
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1899,7 +2143,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1914,7 +2158,7 @@
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1927,7 +2171,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1942,7 +2186,7 @@
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1957,7 +2201,7 @@
       <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
